--- a/Assets/Test/EditorTool/ExcelToFlatBufferWindow/Excel/PlayerInit.xlsx
+++ b/Assets/Test/EditorTool/ExcelToFlatBufferWindow/Excel/PlayerInit.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>玩家初始化</t>
   </si>
@@ -55,12 +55,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>[Prop]</t>
-  </si>
-  <si>
-    <t>{2,5000},{1,1000},{201,5000},{301,500}</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -83,7 +77,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -140,13 +134,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -290,13 +277,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,12 +371,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -408,12 +384,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,97 +604,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,10 +709,10 @@
     <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,10 +721,10 @@
     <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,10 +733,10 @@
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,20 +745,14 @@
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,6 +771,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,7 +790,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1210,72 +1183,153 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="62" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" ht="18" spans="1:2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" ht="18" spans="1:2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>8</v>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:2">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>1001</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>9</v>
+      <c r="B8" s="12">
+        <v>10010001</v>
+      </c>
+    </row>
+    <row r="9" ht="18" spans="1:2">
+      <c r="A9" s="11">
+        <v>1002</v>
+      </c>
+      <c r="B9" s="12">
+        <v>10010002</v>
+      </c>
+    </row>
+    <row r="10" ht="18" spans="1:2">
+      <c r="A10" s="11">
+        <v>1003</v>
+      </c>
+      <c r="B10" s="12">
+        <v>10010003</v>
+      </c>
+    </row>
+    <row r="11" ht="18" spans="1:2">
+      <c r="A11" s="11">
+        <v>1004</v>
+      </c>
+      <c r="B11" s="12">
+        <v>10010004</v>
+      </c>
+    </row>
+    <row r="12" ht="18" spans="1:2">
+      <c r="A12" s="11">
+        <v>1005</v>
+      </c>
+      <c r="B12" s="12">
+        <v>10010005</v>
+      </c>
+    </row>
+    <row r="13" ht="18" spans="1:2">
+      <c r="A13" s="11">
+        <v>1006</v>
+      </c>
+      <c r="B13" s="12">
+        <v>10010006</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="1:2">
+      <c r="A14" s="11">
+        <v>1007</v>
+      </c>
+      <c r="B14" s="12">
+        <v>10010007</v>
+      </c>
+    </row>
+    <row r="15" ht="18" spans="1:2">
+      <c r="A15" s="11">
+        <v>1008</v>
+      </c>
+      <c r="B15" s="12">
+        <v>10010008</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:2">
+      <c r="A16" s="11">
+        <v>1009</v>
+      </c>
+      <c r="B16" s="12">
+        <v>10010009</v>
+      </c>
+    </row>
+    <row r="17" ht="18" spans="1:2">
+      <c r="A17" s="11">
+        <v>1010</v>
+      </c>
+      <c r="B17" s="12">
+        <v>10010010</v>
+      </c>
+    </row>
+    <row r="18" ht="18" spans="1:2">
+      <c r="A18" s="11">
+        <v>1011</v>
+      </c>
+      <c r="B18" s="12">
+        <v>10010011</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1381,7 @@
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:2">
@@ -1340,10 +1394,10 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:2">
@@ -1351,7 +1405,7 @@
         <v>1001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
